--- a/csv/1200-1260/T1P1T.xlsx
+++ b/csv/1200-1260/T1P1T.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\_s2420729\Documents\GitHub\VEA\csv\1200-1260\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA75E7C-B7D2-40DD-86B4-269E2EC46730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF312D6-F3CA-4FD9-B3F9-50BFCA801BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G1801"/>
+    <sheetView tabSelected="1" topLeftCell="A1488" workbookViewId="0">
+      <selection activeCell="H1357" sqref="H1357:J1531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
